--- a/Elin_SukutsuArena/LangMod/EN/SourceElement.xlsx
+++ b/Elin_SukutsuArena/LangMod/EN/SourceElement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">group</t>
   </si>
   <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
     <t xml:space="preserve">max</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">FEAT</t>
   </si>
   <si>
+    <t xml:space="preserve">feat</t>
+  </si>
+  <si>
     <t xml:space="preserve">featArenaSpirit</t>
   </si>
   <si>
@@ -85,42 +91,10 @@
     <t xml:space="preserve">FeatArenaSpirit</t>
   </si>
   <si>
-    <t xml:space="preserve">闘技場で戦い抜いた証。活力が向上する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof of surviving the arena. Increases vigor.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Lv1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">活力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">+5 / Lv2:+10 / Lv3:+15 / Lv4:+20 / Lv5:+25 / Lv6:+30 / Lv7:+40</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lv1:Vigor+5 / Lv2:+10 / Lv3:+15 / Lv4:+20 / Lv5:+25 / Lv6:+30 / Lv7:+40</t>
+    <t xml:space="preserve">倒れても立ち上がる。それが闘士の本能だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall and rise again. That is the instinct of a fighter.</t>
   </si>
 </sst>
 </file>
@@ -336,7 +310,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -350,12 +324,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="37.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="60.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="37.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,56 +373,65 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -456,36 +440,39 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
